--- a/QueryBook.xlsx
+++ b/QueryBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajnish\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AshokIT\FDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF83BA14-C1C5-4040-8701-8A319B3854C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315C87DE-F262-4F34-AC0C-5382021E206E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="809" xr2:uid="{E3C0EEFB-7019-4719-92DC-F716B7CF9B9A}"/>
   </bookViews>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45B7EEE-51F3-4587-8732-FC130204FDF0}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="4" t="str">
-        <f t="shared" ref="J7:J20" ca="1" si="2">IF($K8="close",TODAY(),IF($K8="open","InProgress",""))</f>
+        <f t="shared" ref="J8:J20" ca="1" si="2">IF($K8="close",TODAY(),IF($K8="open","InProgress",""))</f>
         <v/>
       </c>
       <c r="K8" s="5"/>
@@ -795,6 +795,9 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,6 +817,9 @@
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -833,6 +839,9 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -852,6 +861,9 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -871,6 +883,9 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -890,6 +905,9 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,7 +926,10 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -927,7 +948,10 @@
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,7 +970,10 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,7 +992,10 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,7 +1014,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -996,7 +1026,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1008,7 +1038,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
